--- a/biology/Botanique/Pommaison/Pommaison.xlsx
+++ b/biology/Botanique/Pommaison/Pommaison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pommaison est un processus de formation de la pomme pour certains légumes, essentiellement les salades et les choux, dans le cycle annuel de ces graminées. Ce processus intervient avant la montaison.
 </t>
